--- a/ETL Mapping document.xlsx
+++ b/ETL Mapping document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c48bf10114df5260/Desktop/UCI Bootcamp/Group Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongchenhe/Docus/UCI_DSA/project-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="8_{B61D0030-7127-4544-A75F-6B62062A3874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D612C9A0-F0F6-47C7-B245-A154F67B090D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F8E454-FB13-E24F-9EDF-1ABE003EF22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Overview:</t>
   </si>
@@ -182,6 +182,15 @@
   </si>
   <si>
     <t>income_fastfood</t>
+  </si>
+  <si>
+    <t>Group household income by city</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>calculate the average after grouping by city</t>
   </si>
 </sst>
 </file>
@@ -318,39 +327,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -361,20 +350,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,28 +589,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -642,50 +638,50 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="14"/>
       <c r="J4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="20">
+    <row r="5" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="10" t="s">
         <v>53</v>
       </c>
       <c r="J5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -716,21 +712,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="25">
+    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A11" s="11">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -743,13 +739,13 @@
         <v>15</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -760,8 +756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
+    <row r="12" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -774,13 +770,13 @@
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -791,8 +787,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="25">
+    <row r="13" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="11">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -805,25 +801,25 @@
         <v>14</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
+      <c r="K13" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A14" s="11">
         <v>1</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -836,308 +832,303 @@
         <v>14</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="K14" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A15" s="11"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
-        <v>2</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="30" t="s">
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16">
+      <c r="I16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="27">
-        <v>2</v>
-      </c>
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A17" s="13">
+        <v>2</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="30" t="s">
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18">
+      <c r="I17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="27">
-        <v>2</v>
-      </c>
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A18" s="13">
+        <v>2</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="30" t="s">
+      <c r="D18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="27">
-        <v>2</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="I18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="30" t="s">
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="I19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28">
-        <v>2</v>
-      </c>
-      <c r="B20" s="17" t="s">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13">
+        <v>2</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="30" t="s">
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28">
-        <v>2</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="I20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="30" t="s">
+      <c r="D21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="21">
+      <c r="I21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="25" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A26" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="29" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A33" s="9">
         <v>1</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="20">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A34" s="9">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+    </row>
+    <row r="35" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="A35" s="9">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
       <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
